--- a/FM-QP-DILG-ISTMS-RO-17-02 _ICT_TA.xlsx
+++ b/FM-QP-DILG-ISTMS-RO-17-02 _ICT_TA.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\fas2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp4\htdocs\fas2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>ISSUE/CONCERN</t>
   </si>
@@ -45,18 +45,6 @@
   </si>
   <si>
     <t>PERIOD:</t>
-  </si>
-  <si>
-    <t>PREPARED BY:</t>
-  </si>
-  <si>
-    <t>REVIEWED BY:</t>
-  </si>
-  <si>
-    <t>APPROVED BY:</t>
-  </si>
-  <si>
-    <t>Process Owner</t>
   </si>
   <si>
     <t>DATE</t>
@@ -86,18 +74,9 @@
     <t>ICT Technical Assistance Monitoring Logsheet</t>
   </si>
   <si>
-    <t>OVERALL QUALITY RATING</t>
-  </si>
-  <si>
     <t>TOTAL PROCESSING TIME</t>
   </si>
   <si>
-    <t>HERNANDO A. CRUZ</t>
-  </si>
-  <si>
-    <t>LOIDA S. LINSON</t>
-  </si>
-  <si>
     <t>ICT TECHNICAL ASSISTANCE REFERENCE NO.</t>
   </si>
   <si>
@@ -110,36 +89,44 @@
     <t>1 of 1</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>08.01.22</t>
-  </si>
-  <si>
-    <t>DANILO TAM</t>
-  </si>
-  <si>
-    <t>OIC-Division Chief</t>
-  </si>
-  <si>
-    <t>ISTMS Deputy QMR</t>
-  </si>
-  <si>
-    <t>NOTED BY:</t>
-  </si>
-  <si>
-    <t>Division Chief (CO)/
-Regional Deputy QMR</t>
-  </si>
-  <si>
-    <t>FM-QP-DILG-ISTMS-RO-17-02</t>
+    <t>NO.</t>
+  </si>
+  <si>
+    <r>
+      <t>FM-QP-DILG-ISTMS-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>RO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-17-02</t>
+    </r>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03.01.23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,21 +179,13 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <color theme="0"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="0"/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -227,31 +206,12 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
+      <i/>
       <sz val="10"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -276,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -314,17 +274,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -404,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,66 +373,65 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -491,65 +439,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,7 +476,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -881,183 +778,177 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.54296875" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" customWidth="1"/>
     <col min="6" max="6" width="19.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="30.453125" customWidth="1"/>
     <col min="8" max="8" width="13.81640625" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" customWidth="1"/>
-    <col min="10" max="12" width="7.81640625" customWidth="1"/>
-    <col min="13" max="15" width="10" customWidth="1"/>
+    <col min="9" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="15"/>
-      <c r="L2" s="27" t="s">
+      <c r="K2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="C3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="15"/>
-      <c r="L3" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C4" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="L4" s="47" t="s">
+      <c r="K3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="K4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="L4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="M4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="L5" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="K5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="34" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+    </row>
+    <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36" t="s">
+      <c r="F8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="I8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1071,9 +962,8 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1087,9 +977,8 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1103,9 +992,8 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1119,9 +1007,8 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1135,9 +1022,8 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1151,9 +1037,8 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1167,9 +1052,8 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1183,9 +1067,8 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1199,9 +1082,8 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1215,9 +1097,8 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1231,9 +1112,8 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1247,9 +1127,8 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1263,9 +1142,8 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1279,9 +1157,8 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1295,9 +1172,8 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1311,9 +1187,8 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1327,9 +1202,8 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1343,9 +1217,8 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1359,9 +1232,8 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1375,9 +1247,8 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1391,9 +1262,8 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1407,9 +1277,8 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1423,9 +1292,8 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1439,9 +1307,8 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1455,9 +1322,8 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -1471,185 +1337,31 @@
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-    </row>
-    <row r="36" spans="1:14" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
-      <c r="E36" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="43"/>
-      <c r="H36" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-    </row>
-    <row r="37" spans="1:14" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-    </row>
-    <row r="38" spans="1:14" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-    </row>
-    <row r="39" spans="1:14" s="19" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="21"/>
-      <c r="E39" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="24"/>
-      <c r="H39" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-    </row>
-    <row r="40" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-    </row>
-    <row r="45" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-    </row>
+    </row>
+    <row r="40" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="I42:L44"/>
-    <mergeCell ref="I45:L45"/>
+  <mergeCells count="17">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:M7"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F44"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="C4:H5"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F38"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="H37:K38"/>
-    <mergeCell ref="N8:N9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>